--- a/medicine/Psychotrope/Cannabigerol/Cannabigerol.xlsx
+++ b/medicine/Psychotrope/Cannabigerol/Cannabigerol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cannabigérol (CBG) est un composé de la plante de chanvre.
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été découvert dans les années 1960. Sa découverte est importante, car il serait le cannabinoïde souche, duquel dépendent les autres cannabinoïdes.
 Sans lui, le développement des autres molécules de la plante (tétrahydrocannabinol, cannabidiol, , etc.) serait impossible.
-Il est très prometteur, et les chercheurs s'intéressent beaucoup à cette substance, qui pourrait être efficace dans le cas de plusieurs maladies, si des études sérieuses le confirment[2].
+Il est très prometteur, et les chercheurs s'intéressent beaucoup à cette substance, qui pourrait être efficace dans le cas de plusieurs maladies, si des études sérieuses le confirment.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Structure Chimique et Propriétés du Cannabigérol (CBG)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La structure chimique complexe du CBG, qui comprend un noyau de terpène, lui permet d'interagir avec le système endocannabinoïde du corps humain de manière spécifique, influençant ainsi divers processus physiologiques. Des études ont révélé que le CBG agit comme un agoniste hautement puissant des récepteurs α2-adrénergiques et modérément comme antagoniste des récepteurs 5HT1A. Ces interactions avec les récepteurs du système nerveux central suggèrent un potentiel thérapeutique important du CBG dans diverses conditions médicales[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La structure chimique complexe du CBG, qui comprend un noyau de terpène, lui permet d'interagir avec le système endocannabinoïde du corps humain de manière spécifique, influençant ainsi divers processus physiologiques. Des études ont révélé que le CBG agit comme un agoniste hautement puissant des récepteurs α2-adrénergiques et modérément comme antagoniste des récepteurs 5HT1A. Ces interactions avec les récepteurs du système nerveux central suggèrent un potentiel thérapeutique important du CBG dans diverses conditions médicales.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Méthodes d'Extraction du Cannabigérol (CBG)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CBG peut être extrait efficacement de la plante de chanvre en utilisant différentes méthodes d'extraction. L'extraction au dioxyde de carbone (CO2) supercritique, l'extraction à l'éthanol, l'extraction au butane et au propane, l'extraction à l'huile, et l'extraction à l'eau sont parmi les principales techniques utilisées pour extraire le CBG[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CBG peut être extrait efficacement de la plante de chanvre en utilisant différentes méthodes d'extraction. L'extraction au dioxyde de carbone (CO2) supercritique, l'extraction à l'éthanol, l'extraction au butane et au propane, l'extraction à l'huile, et l'extraction à l'eau sont parmi les principales techniques utilisées pour extraire le CBG.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Application thérapeutiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voici les différentes applications qu'il pourrait avoir : effet neuroprotecteur dans le cas de certaines maladies dégénératives, diminution de la pression oculaire dans le cas de glaucomes, réduction de l'inflammation, réduction de certaines troubles urinaires[5], inhibition de la testostérone[6]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici les différentes applications qu'il pourrait avoir : effet neuroprotecteur dans le cas de certaines maladies dégénératives, diminution de la pression oculaire dans le cas de glaucomes, réduction de l'inflammation, réduction de certaines troubles urinaires, inhibition de la testostérone
 L'inconvénient de cette substance est qu'elle compose moins de 1% de la plante de chanvre. Les coûts de production sont donc très élevés pour l'extraire en quantité suffisante.
 Certaines sociétés recherchent actuellement des solutions pour créer du cannabigérol de synthèse, afin de pallier cet obstacle.
 </t>
